--- a/biology/Zoologie/Aporrectodea_rosea/Aporrectodea_rosea.xlsx
+++ b/biology/Zoologie/Aporrectodea_rosea/Aporrectodea_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lombric rose
-Aporrectodea rosea, le Lombric rose[1], est une espèce de vers de terre de la famille des Lumbricidae appartenant au groupe des endogés, c'est-à-dire les premiers centimètres du sol. Présente dans une grande variété de sols peu organiques, elle est répartie sur la quasi-totalité de la planète.
+Aporrectodea rosea, le Lombric rose, est une espèce de vers de terre de la famille des Lumbricidae appartenant au groupe des endogés, c'est-à-dire les premiers centimètres du sol. Présente dans une grande variété de sols peu organiques, elle est répartie sur la quasi-totalité de la planète.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lombric rose est un ver de terre de 4 à 7 cm de long pour 2 à 3,5 cm de diamètre qui pèse de 1,5 à 3 g. Il est coloré de rose et présente un anneau de fécondation, le clitellum, arborant un rose-orangé particulièrement marqué[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lombric rose est un ver de terre de 4 à 7 cm de long pour 2 à 3,5 cm de diamètre qui pèse de 1,5 à 3 g. Il est coloré de rose et présente un anneau de fécondation, le clitellum, arborant un rose-orangé particulièrement marqué.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aporrectodea rosea est une espèce endogée présente dans les trente premiers centimètres des sols forestiers de feuillus et de conifères ainsi que dans les terres arables et les sols prairiaux. Elle tolère les pH acides et apprécie les sols humides et peu organiques dont le taux est inférieur ou égal à 4 %[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aporrectodea rosea est une espèce endogée présente dans les trente premiers centimètres des sols forestiers de feuillus et de conifères ainsi que dans les terres arables et les sols prairiaux. Elle tolère les pH acides et apprécie les sols humides et peu organiques dont le taux est inférieur ou égal à 4 %,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lombric rose est géophage et creuse des galeries presque horizontales. Il présente un mode de reproduction parthénogénétique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lombric rose est géophage et creuse des galeries presque horizontales. Il présente un mode de reproduction parthénogénétique.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lombric rose est une espèce nomade originaire de l'écozone paléarctique actuellement distribuée en Europe, en Asie, en Amériques du Nord et du Sud, en Afrique et en Australie[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lombric rose est une espèce nomade originaire de l'écozone paléarctique actuellement distribuée en Europe, en Asie, en Amériques du Nord et du Sud, en Afrique et en Australie.
 </t>
         </is>
       </c>
@@ -636,11 +656,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aporrectodea rosea a été décrite pour la première fois en 1826 par le zoologiste français Jules-César Savigny (1777-1851) sous le protonyme Enterion roseum, dans une publication rédigée par Georges Cuvier (1769–1832)[4],[5].
-Synonymie
-Aporrectodea rosea a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aporrectodea rosea a été décrite pour la première fois en 1826 par le zoologiste français Jules-César Savigny (1777-1851) sous le protonyme Enterion roseum, dans une publication rédigée par Georges Cuvier (1769–1832),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aporrectodea_rosea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aporrectodea_rosea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aporrectodea rosea a pour synonymes :
 Allolobophora alpestris Bretscher, 1899
 Allolobophora dairenensis Kobayashi, 1940
 Allolobophora danieli rosai Ribaucourt, 1896
